--- a/5 семестр (Квантовая физика)/8.1/8.1.xlsx
+++ b/5 семестр (Квантовая физика)/8.1/8.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/5 семестр (Квантовая физика)/8.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32029FA3-E7EA-D540-AC50-A6EC63A28167}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647A955-B216-284C-8698-0F3AE97404E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D9B46B36-B585-CB43-963D-5FF06C588E57}"/>
   </bookViews>
@@ -90,8 +90,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -125,12 +125,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3401,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D819F04-D60B-4641-B576-09EED057345B}">
   <dimension ref="B2:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="112" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3513,7 +3513,7 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F9">
@@ -3532,11 +3532,11 @@
       <c r="K9">
         <v>991</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" ref="L9:L18" si="0">(H9+273)*25/24-50/3</f>
+      <c r="L9" s="1">
+        <f>(H9+273)*25/24-50/3</f>
         <v>1300</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0.93806</v>
       </c>
       <c r="N9">
@@ -3550,23 +3550,23 @@
       <c r="Q9">
         <v>991</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <f>L9</f>
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="2">
         <v>0.93806</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2">
         <f>O9</f>
         <v>7.1701195434496281</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>-6.3941366136780947E-2</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E10" s="1"/>
+      <c r="E10" s="4"/>
       <c r="F10">
         <v>2.29</v>
       </c>
@@ -3577,17 +3577,17 @@
         <v>1092</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I19" si="1">F10*G10</f>
+        <f t="shared" ref="I10:I19" si="0">F10*G10</f>
         <v>1.3373599999999999</v>
       </c>
       <c r="K10">
         <v>1092</v>
       </c>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
+      <c r="L10" s="1">
+        <f t="shared" ref="L9:L18" si="1">(H10+273)*25/24-50/3</f>
         <v>1405.2083333333333</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>1.3373599999999999</v>
       </c>
       <c r="N10">
@@ -3601,23 +3601,23 @@
       <c r="Q10">
         <v>1092</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <f t="shared" ref="R10:R19" si="4">L10</f>
         <v>1405.2083333333333</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="2">
         <v>1.3373599999999999</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="2">
         <f t="shared" ref="T10:T19" si="5">O10</f>
         <v>7.2479408507280105</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="2">
         <v>0.2906975214122382</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E11" s="1"/>
+      <c r="E11" s="4"/>
       <c r="F11">
         <v>2.79</v>
       </c>
@@ -3628,17 +3628,17 @@
         <v>1196</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7772300000000001</v>
       </c>
       <c r="K11">
         <v>1196</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
         <v>1513.5416666666665</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>1.7772300000000001</v>
       </c>
       <c r="N11">
@@ -3652,23 +3652,23 @@
       <c r="Q11">
         <v>1196</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <f t="shared" si="4"/>
         <v>1513.5416666666665</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="2">
         <v>1.7772300000000001</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="2">
         <f t="shared" si="5"/>
         <v>7.3222076580905382</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="2">
         <v>0.57505597242330064</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
+      <c r="E12" s="4"/>
       <c r="F12">
         <v>3.17</v>
       </c>
@@ -3679,17 +3679,17 @@
         <v>1282</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1397500000000003</v>
       </c>
       <c r="K12">
         <v>1282</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
         <v>1603.125</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>2.1397500000000003</v>
       </c>
       <c r="N12">
@@ -3703,23 +3703,23 @@
       <c r="Q12">
         <v>1282</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <f t="shared" si="4"/>
         <v>1603.125</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="2">
         <v>2.1397500000000003</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="2">
         <f t="shared" si="5"/>
         <v>7.3797101283591342</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="2">
         <v>0.76068899977958215</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E13" s="1"/>
+      <c r="E13" s="4"/>
       <c r="F13">
         <v>3.76</v>
       </c>
@@ -3730,17 +3730,17 @@
         <v>1337</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7523199999999997</v>
       </c>
       <c r="K13">
         <v>1337</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
         <v>1660.4166666666665</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>2.7523199999999997</v>
       </c>
       <c r="N13">
@@ -3754,18 +3754,18 @@
       <c r="Q13">
         <v>1337</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <f t="shared" si="4"/>
         <v>1660.4166666666665</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="2">
         <v>2.7523199999999997</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="2">
         <f t="shared" si="5"/>
         <v>7.4148238538704154</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="2">
         <v>1.0124441923809775</v>
       </c>
       <c r="X13" t="s">
@@ -3786,17 +3786,17 @@
         <v>1488</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5457000000000001</v>
       </c>
       <c r="K14">
         <v>1488</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
         <v>1817.7083333333333</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>3.5457000000000001</v>
       </c>
       <c r="N14">
@@ -3810,29 +3810,29 @@
       <c r="Q14">
         <v>1488</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <f t="shared" si="4"/>
         <v>1817.7083333333333</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="2">
         <v>3.5457000000000001</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="2">
         <f t="shared" si="5"/>
         <v>7.5053318291567823</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="2">
         <v>1.2657356017041677</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="1">
         <f>R14</f>
         <v>1817.7083333333333</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <f>S14/(0.36*10^(-4) * (R14)^4 * (0.0001 * (R14)-0.0168))*100000000</f>
         <v>5.4688438762599887</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="3">
         <f>(Y14-$AB$16)^2</f>
         <v>0.2670748291541411</v>
       </c>
@@ -3848,17 +3848,17 @@
         <v>1609</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.7445700000000004</v>
       </c>
       <c r="K15">
         <v>1609</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="0"/>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
         <v>1943.75</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>4.7445700000000004</v>
       </c>
       <c r="N15">
@@ -3872,29 +3872,29 @@
       <c r="Q15">
         <v>1609</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <f t="shared" si="4"/>
         <v>1943.75</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="2">
         <v>4.7445700000000004</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="2">
         <f t="shared" si="5"/>
         <v>7.5723743759275441</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="2">
         <v>1.5570008062484362</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="1">
         <f t="shared" ref="X15:X19" si="6">R15</f>
         <v>1943.75</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="3">
         <f t="shared" ref="Y15:Y19" si="7">S15/(0.36*10^(-4) * (R15)^4 * (0.0001 * (R15)-0.0168))*100000000</f>
         <v>5.1993722133491138</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15" s="3">
         <f t="shared" ref="Z15:Z19" si="8">(Y15-$AB$16)^2</f>
         <v>6.1167759697377318E-2</v>
       </c>
@@ -3910,17 +3910,17 @@
         <v>1703</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.8217999999999996</v>
       </c>
       <c r="K16">
         <v>1703</v>
       </c>
-      <c r="L16" s="2">
-        <f t="shared" si="0"/>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
         <v>2041.6666666666667</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>5.8217999999999996</v>
       </c>
       <c r="N16">
@@ -3934,33 +3934,33 @@
       <c r="Q16">
         <v>1703</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <f t="shared" si="4"/>
         <v>2041.6666666666667</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="2">
         <v>5.8217999999999996</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="2">
         <f t="shared" si="5"/>
         <v>7.6215217467448184</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="2">
         <v>1.7616094922771717</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="1">
         <f t="shared" si="6"/>
         <v>2041.6666666666667</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <f t="shared" si="7"/>
         <v>4.9673309636040504</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="3">
         <f t="shared" si="8"/>
         <v>2.3347587447694008E-4</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AB16" s="3">
         <f>SUM(Y14:Y19)/6</f>
         <v>4.9520510462457352</v>
       </c>
@@ -3980,17 +3980,17 @@
         <v>1802</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.4883599999999992</v>
       </c>
       <c r="K17">
         <v>1802</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="0"/>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
         <v>2144.791666666667</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>7.4883599999999992</v>
       </c>
       <c r="N17">
@@ -4004,29 +4004,29 @@
       <c r="Q17">
         <v>1802</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <f t="shared" si="4"/>
         <v>2144.791666666667</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="2">
         <v>7.4883599999999992</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="2">
         <f t="shared" si="5"/>
         <v>7.6707977015480449</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="2">
         <v>2.0133498149427096</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="1">
         <f t="shared" si="6"/>
         <v>2144.791666666667</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <f t="shared" si="7"/>
         <v>4.9725923568056754</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="3">
         <f t="shared" si="8"/>
         <v>4.2194543951990784E-4</v>
       </c>
@@ -4042,17 +4042,17 @@
         <v>1900</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.7885299999999997</v>
       </c>
       <c r="K18">
         <v>1900</v>
       </c>
-      <c r="L18" s="2">
-        <f t="shared" si="0"/>
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
         <v>2246.875</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>8.7885299999999997</v>
       </c>
       <c r="N18">
@@ -4066,29 +4066,29 @@
       <c r="Q18">
         <v>1900</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="1">
         <f t="shared" si="4"/>
         <v>2246.875</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="2">
         <v>8.7885299999999997</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="2">
         <f t="shared" si="5"/>
         <v>7.7172956409094118</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="2">
         <v>2.1734474622167905</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="1">
         <f t="shared" si="6"/>
         <v>2246.875</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="3">
         <f t="shared" si="7"/>
         <v>4.607546363034813</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="3">
         <f t="shared" si="8"/>
         <v>0.11868347675425786</v>
       </c>
@@ -4104,17 +4104,17 @@
         <v>1948</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.5915400000000002</v>
       </c>
       <c r="K19">
         <v>1948</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <f>(H19+273)*25/24-50/3</f>
         <v>2296.875</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>9.5915400000000002</v>
       </c>
       <c r="N19">
@@ -4128,29 +4128,29 @@
       <c r="Q19">
         <v>1948</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <f t="shared" si="4"/>
         <v>2296.875</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="2">
         <v>9.5915400000000002</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="2">
         <f t="shared" si="5"/>
         <v>7.7393047824012013</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="2">
         <v>2.2608814599447316</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="1">
         <f t="shared" si="6"/>
         <v>2296.875</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="3">
         <f t="shared" si="7"/>
         <v>4.4966205044207701</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="3">
         <f t="shared" si="8"/>
         <v>0.20741697842698131</v>
       </c>
@@ -4300,10 +4300,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>7.1701195434496281</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>-6.3941366136780947E-2</v>
       </c>
       <c r="C2">
@@ -4311,10 +4311,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>7.2479408507280105</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.2906975214122382</v>
       </c>
       <c r="C3">
@@ -4322,10 +4322,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>7.3222076580905382</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.57505597242330064</v>
       </c>
       <c r="C4">
@@ -4333,10 +4333,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>7.3797101283591342</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.76068899977958215</v>
       </c>
       <c r="C5">
@@ -4344,10 +4344,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>7.4148238538704154</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1.0124441923809775</v>
       </c>
       <c r="C6">
@@ -4355,10 +4355,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>7.5053318291567823</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.2657356017041677</v>
       </c>
       <c r="C7">
@@ -4366,10 +4366,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7.5723743759275441</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1.5570008062484362</v>
       </c>
       <c r="C8">
@@ -4377,10 +4377,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7.6215217467448184</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1.7616094922771717</v>
       </c>
       <c r="C9">
@@ -4388,10 +4388,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7.6707977015480449</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>2.0133498149427096</v>
       </c>
       <c r="C10">
@@ -4399,10 +4399,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>7.7172956409094118</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2.1734474622167905</v>
       </c>
       <c r="C11">
@@ -4410,10 +4410,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>7.7393047824012013</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>2.2608814599447316</v>
       </c>
       <c r="C12">
